--- a/Team-Data/2008-09/2-1-2008-09.xlsx
+++ b/Team-Data/2008-09/2-1-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -768,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -777,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -813,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -863,46 +930,46 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.8</v>
       </c>
       <c r="K3" t="n">
         <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
         <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.4</v>
       </c>
       <c r="P3" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -911,31 +978,31 @@
         <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,19 +1032,19 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>27</v>
@@ -986,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -1141,31 +1208,31 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,76 +1297,76 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
         <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1308,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1320,19 +1387,19 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1344,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1359,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -1397,49 +1464,49 @@
         <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.822</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
         <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
         <v>41.8</v>
@@ -1448,40 +1515,40 @@
         <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1496,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
@@ -1523,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
         <v>6</v>
@@ -1535,13 +1602,13 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -1854,13 +1921,13 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.543</v>
+        <v>0.556</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,43 +2025,43 @@
         <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R9" t="n">
         <v>10.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U9" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2006,31 +2073,31 @@
         <v>3.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>24</v>
@@ -2042,22 +2109,22 @@
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>18</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,13 +2151,13 @@
         <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2430,13 +2497,13 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>21</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2615,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
         <v>23</v>
@@ -2624,13 +2691,13 @@
         <v>22</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -2749,16 +2816,16 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2782,10 +2849,10 @@
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>9</v>
@@ -2797,13 +2864,13 @@
         <v>16</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW13" t="n">
         <v>20</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,31 +2944,31 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.377</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.8</v>
@@ -2913,40 +2980,40 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" t="n">
-        <v>3</v>
-      </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,16 +3061,16 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3134,7 +3201,7 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
@@ -3143,13 +3210,13 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -3298,16 +3365,16 @@
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3328,13 +3395,13 @@
         <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
         <v>20</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.48</v>
+        <v>0.471</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,43 +3481,43 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3492,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>18</v>
@@ -3504,13 +3571,13 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3531,16 +3598,16 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H18" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
         <v>5.7</v>
@@ -3608,31 +3675,31 @@
         <v>16.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
         <v>19.2</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.4</v>
@@ -3641,28 +3708,28 @@
         <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3674,13 +3741,13 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>20</v>
@@ -3701,13 +3768,13 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3868,16 +3935,16 @@
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3901,10 +3968,10 @@
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4050,7 +4117,7 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -4083,7 +4150,7 @@
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4223,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4244,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>6</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
-        <v>0.229</v>
+        <v>0.234</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J22" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.448</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O22" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="P22" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S22" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U22" t="n">
         <v>20</v>
@@ -4363,28 +4430,28 @@
         <v>16.7</v>
       </c>
       <c r="W22" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X22" t="n">
         <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,16 +4463,16 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,19 +4481,19 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>14</v>
       </c>
       <c r="AR22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
@@ -4444,19 +4511,19 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.783</v>
+        <v>0.778</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.462</v>
@@ -4515,16 +4582,16 @@
         <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q23" t="n">
         <v>0.726</v>
@@ -4533,16 +4600,16 @@
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
         <v>7.2</v>
@@ -4554,22 +4621,22 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4620,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
@@ -4769,7 +4836,7 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>25</v>
@@ -4817,10 +4884,10 @@
         <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4963,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
@@ -4993,10 +5060,10 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.644</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="P26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5094,46 +5161,46 @@
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,19 +5230,19 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5184,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
         <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.224</v>
+        <v>0.208</v>
       </c>
       <c r="H27" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.445</v>
@@ -5243,73 +5310,73 @@
         <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
         <v>30</v>
       </c>
       <c r="AG27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5324,10 +5391,10 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
@@ -5336,16 +5403,16 @@
         <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5357,10 +5424,10 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>14</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
         <v>23</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,43 +5665,43 @@
         <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O29" t="n">
         <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.823</v>
       </c>
       <c r="R29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T29" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
@@ -5649,13 +5716,13 @@
         <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
         <v>2</v>
@@ -5664,22 +5731,22 @@
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5688,13 +5755,13 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,10 +5770,10 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5727,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>25</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
@@ -6025,19 +6092,19 @@
         <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6073,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6085,7 +6152,7 @@
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-1-2008-09</t>
+          <t>2009-02-01</t>
         </is>
       </c>
     </row>
